--- a/data/TC02.xlsx
+++ b/data/TC02.xlsx
@@ -27,7 +27,7 @@
     <t>mathan@credosystemz.sanbox</t>
   </si>
   <si>
-    <t>Mylearning$3</t>
+    <t>Mylearning$4</t>
   </si>
 </sst>
 </file>
@@ -369,7 +369,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
